--- a/php/uploads/test.xlsx
+++ b/php/uploads/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E96DEA-60F9-447C-96AB-410C3D761DF8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248CDB96-2F0D-49FD-9805-DFEEB76499CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24240" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>Akhila</t>
   </si>
@@ -30,12 +30,6 @@
     <t>akhila@gmail.com</t>
   </si>
   <si>
-    <t>Athul</t>
-  </si>
-  <si>
-    <t>athul@gmail.com</t>
-  </si>
-  <si>
     <t>Asha</t>
   </si>
   <si>
@@ -67,25 +61,52 @@
   </si>
   <si>
     <t>D20</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>milan@gmail.com</t>
+  </si>
+  <si>
+    <t>Teaching_Staff</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>walsh@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajpreet</t>
+  </si>
+  <si>
+    <t>rajpreet@gmail.com</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>gayatri@gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja</t>
+  </si>
+  <si>
+    <t>pooja@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <u/>
@@ -115,17 +136,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -465,9 +483,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -479,72 +499,137 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1">
         <v>123456</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>123456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>123456</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>123456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>123456</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>123456</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -552,9 +637,13 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{D8B13D09-E6A1-4FC5-9301-931AA97A28B7}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{241654B0-085F-4A93-9D1D-33146E4AC215}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{1CA320A0-6B75-4FAF-B304-881C1A0A43E1}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{E4391B82-AEF4-482E-99A2-1ABC7FC9DA31}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{386EF1E1-33F7-4425-BCD1-0B5A413E7715}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{5C5421D1-9F7D-40AB-84D2-E0073115EECA}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{01C87D06-4266-4CB0-AB31-7FB873C444DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/php/uploads/test.xlsx
+++ b/php/uploads/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Athul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248CDB96-2F0D-49FD-9805-DFEEB76499CC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C9C3B8-8CD4-4CA9-82AE-521919C0C557}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="24240" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,25 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
-  <si>
-    <t>Akhila</t>
-  </si>
-  <si>
-    <t>akhila@gmail.com</t>
-  </si>
-  <si>
-    <t>Asha</t>
-  </si>
-  <si>
-    <t>asha@gmail.com</t>
-  </si>
-  <si>
-    <t>Balan</t>
-  </si>
-  <si>
-    <t>balan@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Student</t>
   </si>
@@ -54,46 +36,25 @@
     <t>D10</t>
   </si>
   <si>
-    <t>D15</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>milan@gmail.com</t>
-  </si>
-  <si>
     <t>Teaching_Staff</t>
   </si>
   <si>
-    <t>Walsh</t>
-  </si>
-  <si>
-    <t>walsh@gmail.com</t>
-  </si>
-  <si>
-    <t>Rajpreet</t>
-  </si>
-  <si>
-    <t>rajpreet@gmail.com</t>
-  </si>
-  <si>
-    <t>Gayatri</t>
-  </si>
-  <si>
-    <t>gayatri@gmail.com</t>
-  </si>
-  <si>
-    <t>Pooja</t>
-  </si>
-  <si>
-    <t>pooja@gmail.com</t>
+    <t>Chirag</t>
+  </si>
+  <si>
+    <t>chirag@gmail.com</t>
+  </si>
+  <si>
+    <t>amit@gmail.com</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -486,7 +447,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,153 +458,78 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1">
         <v>123456</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>123456</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>123456</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>123456</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
-        <v>123456</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
-        <v>123456</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{BE9DFBFA-4FD1-43EA-8869-8386CDB89942}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{D8B13D09-E6A1-4FC5-9301-931AA97A28B7}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{241654B0-085F-4A93-9D1D-33146E4AC215}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{1CA320A0-6B75-4FAF-B304-881C1A0A43E1}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{E4391B82-AEF4-482E-99A2-1ABC7FC9DA31}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{386EF1E1-33F7-4425-BCD1-0B5A413E7715}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{5C5421D1-9F7D-40AB-84D2-E0073115EECA}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{01C87D06-4266-4CB0-AB31-7FB873C444DD}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{069D00ED-12D9-48FA-87C3-F493E9A012C8}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{8237DBA6-8512-481C-9AAB-8B52F07CA8D8}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{82DC9B04-1D86-4730-80FE-3C0E3C6263B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
